--- a/workoutchart.xlsx
+++ b/workoutchart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casim\Coding\ChartDesinger\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2995B3-04AA-4F7B-8482-6A0D76EB878B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC92CEB-F0AA-4A7F-AE45-53A22D1681B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{0714277B-D825-4135-BF8A-6D661A8C3987}"/>
+    <workbookView xWindow="30645" yWindow="3090" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{0714277B-D825-4135-BF8A-6D661A8C3987}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="66">
   <si>
     <t>Chest Press</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t>Actual Reps</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1476,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G29" sqref="A1:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,7 +1525,7 @@
       </c>
       <c r="D2" t="str">
         <f ca="1">CONCATENATE(H2,"-",I2,"-",J2,"-",K2)</f>
-        <v>15-20-17-12</v>
+        <v>8-16-11-17</v>
       </c>
       <c r="E2">
         <f>F2</f>
@@ -1529,21 +1535,24 @@
         <f>C2</f>
         <v>4</v>
       </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(5,20)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(5,20)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(5,20)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K2">
         <f ca="1">RANDBETWEEN(5,20)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1558,7 +1567,7 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D29" ca="1" si="0">CONCATENATE(H3,"-",I3,"-",J3,"-",K3)</f>
-        <v>13-15-20-12</v>
+        <v>11-18-15-19</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E29" si="1">F3</f>
@@ -1568,21 +1577,24 @@
         <f t="shared" ref="F3:F29" si="2">C3</f>
         <v>4</v>
       </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
       <c r="H3">
         <f t="shared" ref="H3:K29" ca="1" si="3">RANDBETWEEN(5,20)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
       </c>
-      <c r="J3">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
       <c r="K3">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1597,7 +1609,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7-18-9-9</v>
+        <v>16-15-5-14</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
@@ -1607,21 +1619,24 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
       <c r="H4">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1636,7 +1651,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>16-18-14-8</v>
+        <v>11-8-18-7</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
@@ -1646,21 +1661,24 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="3"/>
         <v>18</v>
       </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
-      </c>
       <c r="K5">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1675,7 +1693,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13-14-14-15</v>
+        <v>17-17-5-17</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -1685,21 +1703,24 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="G6" t="s">
+        <v>65</v>
+      </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1714,7 +1735,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10-20-18-8</v>
+        <v>16-15-17-10</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
@@ -1724,21 +1745,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1753,7 +1777,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>18-20-5-18</v>
+        <v>11-5-11-16</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
@@ -1763,21 +1787,24 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1792,7 +1819,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>18-12-17-17</v>
+        <v>18-5-8-19</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
@@ -1802,21 +1829,24 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
         <v>18</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1831,7 +1861,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12-6-10-18</v>
+        <v>11-15-6-11</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
@@ -1843,19 +1873,19 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
-      </c>
       <c r="K10">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1870,7 +1900,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19-11-5-11</v>
+        <v>6-18-8-10</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
@@ -1882,19 +1912,19 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1909,7 +1939,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5-19-13-8</v>
+        <v>5-11-9-16</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
@@ -1925,15 +1955,15 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1948,7 +1978,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8-8-9-7</v>
+        <v>13-15-11-7</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
@@ -1960,15 +1990,15 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="3"/>
@@ -1987,7 +2017,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14-12-15-18</v>
+        <v>6-11-6-7</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -1999,19 +2029,19 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2026,7 +2056,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7-15-11-17</v>
+        <v>5-9-7-8</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
@@ -2038,19 +2068,19 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="I15">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
       <c r="K15">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2065,7 +2095,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>18-19-12-7</v>
+        <v>11-18-6-16</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -2077,19 +2107,19 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="3"/>
         <v>18</v>
       </c>
-      <c r="I16">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
-      </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2104,7 +2134,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10-12-14-18</v>
+        <v>6-13-19-8</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -2116,19 +2146,19 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2143,7 +2173,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10-8-7-5</v>
+        <v>11-20-9-13</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -2155,19 +2185,19 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2182,7 +2212,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15-18-16-19</v>
+        <v>17-5-12-18</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
@@ -2194,19 +2224,19 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="3"/>
         <v>18</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="K19">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2221,7 +2251,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6-17-11-18</v>
+        <v>10-20-18-19</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
@@ -2233,19 +2263,19 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2260,7 +2290,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15-12-14-14</v>
+        <v>16-11-20-9</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -2272,19 +2302,19 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2299,7 +2329,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17-18-14-6</v>
+        <v>10-9-12-6</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
@@ -2311,15 +2341,15 @@
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="3"/>
@@ -2338,7 +2368,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>13-15-13-16</v>
+        <v>10-17-7-15</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
@@ -2350,19 +2380,19 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="3"/>
         <v>15</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ca="1" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="K23">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2377,7 +2407,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15-14-19-11</v>
+        <v>6-17-8-9</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
@@ -2389,19 +2419,19 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2416,7 +2446,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15-15-16-16</v>
+        <v>9-10-16-5</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
@@ -2428,11 +2458,11 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="3"/>
@@ -2440,7 +2470,7 @@
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2455,7 +2485,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>14-15-12-8</v>
+        <v>14-9-6-8</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
@@ -2471,11 +2501,11 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="3"/>
@@ -2494,7 +2524,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>10-14-7-14</v>
+        <v>10-19-10-16</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
@@ -2510,15 +2540,15 @@
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2533,7 +2563,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17-20-16-9</v>
+        <v>6-5-20-14</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
@@ -2545,19 +2575,19 @@
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
-      <c r="J28">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
       <c r="K28">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2572,7 +2602,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20-20-16-11</v>
+        <v>16-12-20-8</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
@@ -2584,19 +2614,19 @@
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I29">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
-      <c r="I29">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="J29">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
-      </c>
       <c r="K29">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
